--- a/data/nvidia.xlsx
+++ b/data/nvidia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IanMcLean\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_____UPDATES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{915BBCFA-708A-4853-8DA4-A00D71BBFD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC50462-BC26-4EBA-B5CE-7358BE221AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33BEDA45-F3C3-4FA0-9A60-DB9357636891}"/>
   </bookViews>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15956D4-0A5D-4C93-BC85-8A1CC7FB73A8}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,141 +441,165 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45596</v>
+        <v>45808</v>
       </c>
       <c r="B2">
-        <v>35082</v>
+        <v>44062</v>
       </c>
       <c r="C2">
         <f>(B2/B6-1)*100</f>
-        <v>93.609271523178819</v>
+        <v>69.182921210259551</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45504</v>
+        <v>45716</v>
       </c>
       <c r="B3">
-        <v>30040</v>
+        <v>39331</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C10" si="0">(B3/B7-1)*100</f>
-        <v>122.40319834160064</v>
+        <f>(B3/B7-1)*100</f>
+        <v>77.944170474596206</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B4">
+        <v>35082</v>
+      </c>
+      <c r="C4">
+        <f>(B4/B8-1)*100</f>
+        <v>93.609271523178819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B5">
+        <v>30040</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C11" si="0">(B5/B9-1)*100</f>
+        <v>122.40319834160064</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>45412</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>26044</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <f t="shared" si="0"/>
         <v>262.12458286985537</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>45322</v>
       </c>
-      <c r="B5">
+      <c r="B7">
         <v>22103</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <f t="shared" si="0"/>
         <v>265.27846636919514</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>45230</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <v>18120</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <f t="shared" si="0"/>
         <v>205.51340414769851</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>45138</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>13507</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <f t="shared" si="0"/>
         <v>101.47673031026252</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>45046</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <v>7192</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <f t="shared" si="0"/>
         <v>-13.223938223938225</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>44957</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>6051</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <f t="shared" si="0"/>
         <v>-20.829517205285885</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>44865</v>
-      </c>
-      <c r="B10">
-        <v>5931</v>
-      </c>
-      <c r="C10">
-        <f>(B10/B14-1)*100</f>
-        <v>-16.500070392791777</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>44773</v>
-      </c>
-      <c r="B11">
-        <v>6704</v>
-      </c>
-    </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44681</v>
+        <v>44865</v>
       </c>
       <c r="B12">
-        <v>8288</v>
+        <v>5931</v>
+      </c>
+      <c r="C12">
+        <f>(B12/B16-1)*100</f>
+        <v>-16.500070392791777</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44592</v>
+        <v>44773</v>
       </c>
       <c r="B13">
-        <v>7643</v>
+        <v>6704</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <v>44681</v>
+      </c>
+      <c r="B14">
+        <v>8288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B15">
+        <v>7643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>44500</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <v>7103</v>
       </c>
     </row>

--- a/data/nvidia.xlsx
+++ b/data/nvidia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_____UPDATES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wopi.dropbox.com/wopi/files/oid_18311636091103215616/WOPIServiceId_TP_DROPBOX_PLUS/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC50462-BC26-4EBA-B5CE-7358BE221AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{CAC50462-BC26-4EBA-B5CE-7358BE221AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39D8774B-17D8-4AC2-8773-40C54FC00B68}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33BEDA45-F3C3-4FA0-9A60-DB9357636891}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{33BEDA45-F3C3-4FA0-9A60-DB9357636891}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -419,9 +419,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15956D4-0A5D-4C93-BC85-8A1CC7FB73A8}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -441,165 +443,177 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45808</v>
+        <v>45865</v>
       </c>
       <c r="B2">
-        <v>44062</v>
+        <v>46743</v>
       </c>
       <c r="C2">
-        <f>(B2/B6-1)*100</f>
-        <v>69.182921210259551</v>
+        <f>(B2/B7-1)*100</f>
+        <v>79.477038857318377</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45716</v>
+        <v>45774</v>
       </c>
       <c r="B3">
-        <v>39331</v>
+        <v>44062</v>
       </c>
       <c r="C3">
-        <f>(B3/B7-1)*100</f>
-        <v>77.944170474596206</v>
+        <f>(B3/B8-1)*100</f>
+        <v>99.348504727865006</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45596</v>
+        <v>45683</v>
       </c>
       <c r="B4">
-        <v>35082</v>
+        <v>39331</v>
       </c>
       <c r="C4">
         <f>(B4/B8-1)*100</f>
-        <v>93.609271523178819</v>
+        <v>77.944170474596206</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45504</v>
+        <v>45596</v>
       </c>
       <c r="B5">
-        <v>30040</v>
+        <v>35082</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C11" si="0">(B5/B9-1)*100</f>
-        <v>122.40319834160064</v>
+        <f>(B5/B9-1)*100</f>
+        <v>93.609271523178819</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B6">
+        <v>30040</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C12" si="0">(B6/B10-1)*100</f>
+        <v>122.40319834160064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>45412</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>26044</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <f t="shared" si="0"/>
         <v>262.12458286985537</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>45322</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>22103</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <f t="shared" si="0"/>
         <v>265.27846636919514</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>45230</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>18120</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <f t="shared" si="0"/>
         <v>205.51340414769851</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>45138</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>13507</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <f t="shared" si="0"/>
         <v>101.47673031026252</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>45046</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>7192</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <f t="shared" si="0"/>
         <v>-13.223938223938225</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>44957</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>6051</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <f t="shared" si="0"/>
         <v>-20.829517205285885</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>44865</v>
-      </c>
-      <c r="B12">
-        <v>5931</v>
-      </c>
-      <c r="C12">
-        <f>(B12/B16-1)*100</f>
-        <v>-16.500070392791777</v>
-      </c>
-    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44773</v>
+        <v>44865</v>
       </c>
       <c r="B13">
-        <v>6704</v>
+        <v>5931</v>
+      </c>
+      <c r="C13">
+        <f>(B13/B17-1)*100</f>
+        <v>-16.500070392791777</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>44681</v>
+        <v>44773</v>
       </c>
       <c r="B14">
-        <v>8288</v>
+        <v>6704</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>44592</v>
+        <v>44681</v>
       </c>
       <c r="B15">
-        <v>7643</v>
+        <v>8288</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B16">
+        <v>7643</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>44500</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>7103</v>
       </c>
     </row>

--- a/data/nvidia.xlsx
+++ b/data/nvidia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wopi.dropbox.com/wopi/files/oid_18311636091103215616/WOPIServiceId_TP_DROPBOX_PLUS/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{CAC50462-BC26-4EBA-B5CE-7358BE221AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39D8774B-17D8-4AC2-8773-40C54FC00B68}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{CAC50462-BC26-4EBA-B5CE-7358BE221AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BEF6261-2A92-4393-BD85-C96740817349}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{33BEDA45-F3C3-4FA0-9A60-DB9357636891}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33BEDA45-F3C3-4FA0-9A60-DB9357636891}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,8 +449,8 @@
         <v>46743</v>
       </c>
       <c r="C2">
-        <f>(B2/B7-1)*100</f>
-        <v>79.477038857318377</v>
+        <f>(B2/B6-1)*100</f>
+        <v>55.602529960053261</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -461,8 +461,8 @@
         <v>44062</v>
       </c>
       <c r="C3">
-        <f>(B3/B8-1)*100</f>
-        <v>99.348504727865006</v>
+        <f>(B3/B7-1)*100</f>
+        <v>69.182921210259551</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
